--- a/test-suite/usfuels/src/main/resources/testdata/testdata.xlsx
+++ b/test-suite/usfuels/src/main/resources/testdata/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\eclipse-workspace\test-suite\usfuels\src\main\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\git\Maven\test-suite\usfuels\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29461C5A-C147-4C2D-9DA0-87EF1B5E43DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797A8F6-998C-4746-8B37-E049976F1CC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
@@ -1940,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
@@ -1967,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
@@ -2021,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="4" t="s">
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="4" t="s">
@@ -2129,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
@@ -2183,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="4" t="s">
@@ -2210,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
@@ -2237,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">

--- a/test-suite/usfuels/src/main/resources/testdata/testdata.xlsx
+++ b/test-suite/usfuels/src/main/resources/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\git\Maven\test-suite\usfuels\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797A8F6-998C-4746-8B37-E049976F1CC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2378F1A-C20A-4188-85E5-81872B7EF7F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B15"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="4" t="s">
@@ -2129,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
@@ -2183,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="4" t="s">
@@ -2210,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
@@ -2237,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
@@ -2264,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="4" t="s">

--- a/test-suite/usfuels/src/main/resources/testdata/testdata.xlsx
+++ b/test-suite/usfuels/src/main/resources/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N.Kumar8\git\Maven\test-suite\usfuels\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2378F1A-C20A-4188-85E5-81872B7EF7F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC16D2-CF36-48F3-A4FC-AA060FF5DDFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1"/>
@@ -1967,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
@@ -2021,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="4" t="s">
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
